--- a/MyScrumBudget_0.1.3.xlsx
+++ b/MyScrumBudget_0.1.3.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Documents\GitHub\myscrumbudget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E056FAAD-BAA2-409B-B5CE-EB0825C4D195}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7670F822-DD6E-4706-951F-CF58B6971DB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{7EFC9F54-FD64-4CB3-8707-A4DEAF994445}"/>
   </bookViews>
   <sheets>
-    <sheet name="MyScrumTeam" sheetId="1" r:id="rId1"/>
+    <sheet name="MyScrumBudget™" sheetId="1" r:id="rId1"/>
     <sheet name="Vlookups" sheetId="2" r:id="rId2"/>
     <sheet name="Change Log" sheetId="3" r:id="rId3"/>
     <sheet name="GNU GPL" sheetId="4" r:id="rId4"/>

--- a/MyScrumBudget_0.1.3.xlsx
+++ b/MyScrumBudget_0.1.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Documents\GitHub\myscrumbudget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7670F822-DD6E-4706-951F-CF58B6971DB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF6EA2A-D0DF-4B76-8D28-803C0067580D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{7EFC9F54-FD64-4CB3-8707-A4DEAF994445}"/>
   </bookViews>
@@ -3132,15 +3132,15 @@
         <v>2</v>
       </c>
       <c r="E6" s="8" t="str">
-        <f>_xlfn.CONCAT(CHOOSE(MONTH(E5),"Jan","Feb","Mar","Apr","May","Jun","Jul","Aug","Sep","Oct","Nov","Dec"), " '",TEXT(E5,"YY"))</f>
+        <f>CONCATENATE(CHOOSE(MONTH(E5),"Jan","Feb","Mar","Apr","May","Jun","Jul","Aug","Sep","Oct","Nov","Dec"), " '",TEXT(E5,"YY"))</f>
         <v>Jul '20</v>
       </c>
       <c r="F6" s="8" t="str">
-        <f>_xlfn.CONCAT(CHOOSE(MONTH(F5),"Jan","Feb","Mar","Apr","May","Jun","Jul","Aug","Sep","Oct","Nov","Dec"), " '",TEXT(F5,"YY"))</f>
+        <f t="shared" ref="F6:AO6" si="1">CONCATENATE(CHOOSE(MONTH(F5),"Jan","Feb","Mar","Apr","May","Jun","Jul","Aug","Sep","Oct","Nov","Dec"), " '",TEXT(F5,"YY"))</f>
         <v>Aug '20</v>
       </c>
       <c r="G6" s="8" t="str">
-        <f t="shared" ref="G6:AO6" si="1">_xlfn.CONCAT(CHOOSE(MONTH(G5),"Jan","Feb","Mar","Apr","May","Jun","Jul","Aug","Sep","Oct","Nov","Dec"), " '",TEXT(G5,"YY"))</f>
+        <f t="shared" si="1"/>
         <v>Sep '20</v>
       </c>
       <c r="H6" s="8" t="str">
